--- a/CVX_Kenya/Optimization/ Pulping_machines.xlsx
+++ b/CVX_Kenya/Optimization/ Pulping_machines.xlsx
@@ -14,60 +14,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Unnamed: 2_level_0</t>
+  </si>
+  <si>
+    <t>Unnamed: 3_level_0</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Max Unit</t>
+  </si>
+  <si>
+    <t>Max Inv</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>PROI</t>
+  </si>
+  <si>
+    <t>PPBT</t>
+  </si>
+  <si>
+    <t>Water Saving</t>
+  </si>
+  <si>
+    <t>Emission Saving</t>
+  </si>
+  <si>
+    <t>Land Saving</t>
+  </si>
+  <si>
+    <t>Import Saving</t>
+  </si>
+  <si>
+    <t>Capital Saving</t>
+  </si>
+  <si>
+    <t>Workforce Saving</t>
+  </si>
+  <si>
+    <t>Water Investment</t>
+  </si>
+  <si>
+    <t>Emission Investment</t>
+  </si>
+  <si>
+    <t>Land Investment</t>
+  </si>
+  <si>
+    <t>Import Investment</t>
+  </si>
+  <si>
+    <t>Workforce Investment</t>
+  </si>
+  <si>
+    <t>Capital Investment</t>
+  </si>
+  <si>
+    <t>Water Total Impact</t>
+  </si>
+  <si>
+    <t>Emission Total Impact</t>
+  </si>
+  <si>
+    <t>Land Total Impact</t>
+  </si>
+  <si>
+    <t>Import Total Impact</t>
+  </si>
+  <si>
+    <t>Workforce Total Impact</t>
+  </si>
+  <si>
+    <t>Capital Total Impact</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>Saving</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
   <si>
     <t>Functional Unit</t>
   </si>
   <si>
-    <t>Unit Cost</t>
-  </si>
-  <si>
-    <t>Max Unit</t>
-  </si>
-  <si>
-    <t>Max Inv</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Saving</t>
-  </si>
-  <si>
-    <t>ROI</t>
-  </si>
-  <si>
-    <t>Water Saving</t>
-  </si>
-  <si>
-    <t>Emission Saving</t>
-  </si>
-  <si>
-    <t>Land Saving</t>
-  </si>
-  <si>
-    <t>Water Consumption</t>
-  </si>
-  <si>
-    <t>Emission Consumption</t>
-  </si>
-  <si>
-    <t>Land Consumption</t>
-  </si>
-  <si>
-    <t>kSh/FU</t>
+    <t>M kSh/FU</t>
   </si>
   <si>
     <t>FU</t>
   </si>
   <si>
-    <t>kSh</t>
+    <t>M kSh</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>m3/FU</t>
   </si>
   <si>
-    <t>ton/FU</t>
+    <t>kton/FU</t>
   </si>
   <si>
     <t>ha/FU</t>
@@ -76,16 +133,16 @@
     <t>Pulping_machines</t>
   </si>
   <si>
-    <t>Shading_nets</t>
-  </si>
-  <si>
-    <t>Shading_trees</t>
-  </si>
-  <si>
-    <t>Biomass_ongrid</t>
+    <t>_450_109</t>
+  </si>
+  <si>
+    <t>Pulping_machines_450_109</t>
   </si>
   <si>
     <t>1 M Ksh investment</t>
+  </si>
+  <si>
+    <t>IMPACT = IMPACT_of_investment + IMPACT_of_operation*USEFUL_LIFE_of_technology</t>
   </si>
 </sst>
 </file>
@@ -443,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:31">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -487,60 +544,162 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:31">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:31">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -549,163 +708,166 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7056420436128974</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.587206880765049</v>
+        <v>0.9599999198690057</v>
       </c>
       <c r="I4">
-        <v>3.892082331818528</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0005395624957600376</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.753019712356036</v>
       </c>
       <c r="L4">
-        <v>0.004962510938639753</v>
+        <v>0.0004974830117134843</v>
       </c>
       <c r="M4">
-        <v>0.002309762501681689</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
+      <c r="P4">
+        <v>0.07865885877981782</v>
+      </c>
+      <c r="Q4">
+        <v>0.00425358081702143</v>
+      </c>
+      <c r="R4">
+        <v>0.001979796430532588</v>
+      </c>
+      <c r="S4">
+        <v>0.001174013130366802</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.05442387005314231</v>
+      </c>
+      <c r="W4">
+        <f>Inv+usefullife*Sav</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>Inv+usefullife*Sav</f>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>Inv+usefullife*Sav</f>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f>Inv+usefullife*Sav</f>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f>Inv+usefullife*Sav</f>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f>Inv+usefullife*Sav</f>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>1.450007572015273</v>
+      </c>
+      <c r="AD4">
+        <v>0.6620654528960586</v>
+      </c>
+      <c r="AE4">
+        <v>0.5396104487590492</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="5" spans="1:31">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.7056420436128974</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>1.587206880765049</v>
-      </c>
-      <c r="I5">
-        <v>3.892082331818528</v>
-      </c>
-      <c r="J5">
-        <v>0.0005395624957600376</v>
+        <v>0.9599999198690057</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.753019712356036</v>
       </c>
       <c r="L5">
-        <v>0.004962510938639753</v>
-      </c>
-      <c r="M5">
-        <v>0.002309762501681689</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
+        <v>0.0004974830117134843</v>
+      </c>
+      <c r="P5">
+        <v>0.07865885877981782</v>
+      </c>
+      <c r="Q5">
+        <v>0.00425358081702143</v>
+      </c>
+      <c r="R5">
+        <v>0.001979796430532588</v>
+      </c>
+      <c r="S5">
+        <v>0.001174013130366802</v>
+      </c>
+      <c r="U5">
+        <v>0.05442387005314231</v>
+      </c>
+      <c r="AC5">
+        <v>1.450007572015273</v>
+      </c>
+      <c r="AD5">
+        <v>0.6620654528960586</v>
+      </c>
+      <c r="AE5">
+        <v>0.5396104487590492</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="6" spans="1:31">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.7056420436128974</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>1.587206880765049</v>
-      </c>
-      <c r="I6">
-        <v>3.892082331818528</v>
-      </c>
-      <c r="J6">
-        <v>0.0005395624957600376</v>
+        <v>0.9599999198690057</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.753019712356036</v>
       </c>
       <c r="L6">
-        <v>0.004962510938639753</v>
-      </c>
-      <c r="M6">
-        <v>0.002309762501681689</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0.7056420436128974</v>
-      </c>
-      <c r="H7">
-        <v>1.587206880765049</v>
-      </c>
-      <c r="I7">
-        <v>3.892082331818528</v>
-      </c>
-      <c r="J7">
-        <v>0.0005395624957600376</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0.004962510938639753</v>
-      </c>
-      <c r="M7">
-        <v>0.002309762501681689</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
+        <v>0.0004974830117134843</v>
+      </c>
+      <c r="P6">
+        <v>0.07865885877981782</v>
+      </c>
+      <c r="Q6">
+        <v>0.00425358081702143</v>
+      </c>
+      <c r="R6">
+        <v>0.001979796430532588</v>
+      </c>
+      <c r="S6">
+        <v>0.001174013130366802</v>
+      </c>
+      <c r="U6">
+        <v>0.05442387005314231</v>
+      </c>
+      <c r="W6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC6">
+        <v>1.450007572015273</v>
+      </c>
+      <c r="AD6">
+        <v>0.6620654528960586</v>
+      </c>
+      <c r="AE6">
+        <v>0.5396104487590492</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CVX_Kenya/Optimization/ Pulping_machines.xlsx
+++ b/CVX_Kenya/Optimization/ Pulping_machines.xlsx
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9599999198690057</v>
+        <v>1.074999854899943</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.753019712356036</v>
+        <v>0.0288218287169002</v>
       </c>
       <c r="L4">
-        <v>0.0004974830117134843</v>
+        <v>0.0009009608766064048</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -732,22 +732,22 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.07865885877981782</v>
+        <v>0.1426123455166817</v>
       </c>
       <c r="Q4">
-        <v>0.00425358081702143</v>
+        <v>8.039055683184415e-05</v>
       </c>
       <c r="R4">
-        <v>0.001979796430532588</v>
+        <v>0.003843874612357467</v>
       </c>
       <c r="S4">
-        <v>0.001174013130366802</v>
+        <v>0.000307947862893343</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.05442387005314231</v>
+        <v>0.03848720947280526</v>
       </c>
       <c r="W4">
         <f>Inv+usefullife*Sav</f>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>1.450007572015273</v>
+        <v>0.8509804988462096</v>
       </c>
       <c r="AD4">
-        <v>0.6620654528960586</v>
+        <v>1.263248519040644</v>
       </c>
       <c r="AE4">
-        <v>0.5396104487590492</v>
+        <v>0.7998103252612054</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -789,37 +789,37 @@
         <v>39</v>
       </c>
       <c r="H5">
-        <v>0.9599999198690057</v>
+        <v>1.074999854899943</v>
       </c>
       <c r="K5">
-        <v>3.753019712356036</v>
+        <v>0.0288218287169002</v>
       </c>
       <c r="L5">
-        <v>0.0004974830117134843</v>
+        <v>0.0009009608766064048</v>
       </c>
       <c r="P5">
-        <v>0.07865885877981782</v>
+        <v>0.1426123455166817</v>
       </c>
       <c r="Q5">
-        <v>0.00425358081702143</v>
+        <v>8.039055683184415e-05</v>
       </c>
       <c r="R5">
-        <v>0.001979796430532588</v>
+        <v>0.003843874612357467</v>
       </c>
       <c r="S5">
-        <v>0.001174013130366802</v>
+        <v>0.000307947862893343</v>
       </c>
       <c r="U5">
-        <v>0.05442387005314231</v>
+        <v>0.03848720947280526</v>
       </c>
       <c r="AC5">
-        <v>1.450007572015273</v>
+        <v>0.8509804988462096</v>
       </c>
       <c r="AD5">
-        <v>0.6620654528960586</v>
+        <v>1.263248519040644</v>
       </c>
       <c r="AE5">
-        <v>0.5396104487590492</v>
+        <v>0.7998103252612054</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -828,40 +828,40 @@
         <v>39</v>
       </c>
       <c r="H6">
-        <v>0.9599999198690057</v>
+        <v>1.074999854899943</v>
       </c>
       <c r="K6">
-        <v>3.753019712356036</v>
+        <v>0.0288218287169002</v>
       </c>
       <c r="L6">
-        <v>0.0004974830117134843</v>
+        <v>0.0009009608766064048</v>
       </c>
       <c r="P6">
-        <v>0.07865885877981782</v>
+        <v>0.1426123455166817</v>
       </c>
       <c r="Q6">
-        <v>0.00425358081702143</v>
+        <v>8.039055683184415e-05</v>
       </c>
       <c r="R6">
-        <v>0.001979796430532588</v>
+        <v>0.003843874612357467</v>
       </c>
       <c r="S6">
-        <v>0.001174013130366802</v>
+        <v>0.000307947862893343</v>
       </c>
       <c r="U6">
-        <v>0.05442387005314231</v>
+        <v>0.03848720947280526</v>
       </c>
       <c r="W6" t="s">
         <v>42</v>
       </c>
       <c r="AC6">
-        <v>1.450007572015273</v>
+        <v>0.8509804988462096</v>
       </c>
       <c r="AD6">
-        <v>0.6620654528960586</v>
+        <v>1.263248519040644</v>
       </c>
       <c r="AE6">
-        <v>0.5396104487590492</v>
+        <v>0.7998103252612054</v>
       </c>
     </row>
   </sheetData>
